--- a/002792/002792_2019-01_level3.xlsx
+++ b/002792/002792_2019-01_level3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -104,11 +104,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -116,17 +116,30 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -156,14 +169,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -171,7 +185,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -457,9 +471,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="7" width="15.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -504,29 +523,29 @@
         <v>0.92</v>
       </c>
       <c r="G2">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1.84</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1.82</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.89</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0.99</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>0.68</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>0.71</v>
       </c>
     </row>
@@ -587,7 +606,7 @@
         <v>0.86</v>
       </c>
       <c r="D6">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="E6">
         <v>1.07</v>
@@ -610,7 +629,7 @@
         <v>0.59</v>
       </c>
       <c r="D7">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E7">
         <v>1.05</v>
@@ -622,26 +641,26 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" s="2" customFormat="1">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>1.1</v>
-      </c>
-      <c r="C8">
-        <v>1.15</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D8" s="2">
         <v>1.01</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>1.08</v>
       </c>
-      <c r="F8">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="G8" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -682,7 +701,7 @@
         <v>1.01</v>
       </c>
       <c r="E10">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F10">
         <v>0.87</v>
@@ -725,7 +744,7 @@
         <v>1.83</v>
       </c>
       <c r="D12">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="E12">
         <v>0.99</v>
@@ -748,10 +767,10 @@
         <v>0.89</v>
       </c>
       <c r="D13">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E13">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -777,7 +796,7 @@
         <v>1.04</v>
       </c>
       <c r="F14">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G14">
         <v>1.08</v>
@@ -857,16 +876,16 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="C18">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D18">
         <v>1.08</v>
       </c>
       <c r="E18">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F18">
         <v>0.72</v>
@@ -875,26 +894,26 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
+    <row r="19" spans="1:7" s="2" customFormat="1">
+      <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>1.51</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>1.94</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>0.87</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>1.01</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>0.45</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>0.53</v>
       </c>
     </row>
@@ -909,13 +928,13 @@
         <v>1.3</v>
       </c>
       <c r="D20">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="E20">
         <v>1.01</v>
       </c>
       <c r="F20">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="G20">
         <v>0.78</v>
@@ -935,7 +954,7 @@
         <v>0.9</v>
       </c>
       <c r="E21">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F21">
         <v>0.79</v>
@@ -952,7 +971,7 @@
         <v>1.43</v>
       </c>
       <c r="C22">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="D22">
         <v>1.06</v>
@@ -961,13 +980,14 @@
         <v>1.04</v>
       </c>
       <c r="F22">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="G22">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>